--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2795883.686363423</v>
+        <v>2791579.346553555</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>208.2085323732921</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>85.49675733781396</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.875953774682731</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5806565852695</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>18.62460964454143</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>259.6326967715748</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>10.0572986166552</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75.25861241125463</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>37.91310979937193</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>83.03844342454202</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614501</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115242</v>
+        <v>20.24979976115219</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>132.6026661256555</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>249.9185339963871</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>100.4848692420328</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.91773138701436</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986246</v>
       </c>
       <c r="D13" t="n">
-        <v>95.12712756824217</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>101.0545458193625</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.15381658332863</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>47.84205650381972</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>73.56194264363164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>81.88270281562022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>94.30373791808191</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,16 +2532,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174124</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>176.2997404547449</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174124</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>185.6271053876777</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,13 +3088,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784678</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>53.26309598425066</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717412</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>136.6755965411348</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>113.9549918517058</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595037</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>37.17792077063368</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>140.2695301648957</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.7894056603333</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C2" t="n">
-        <v>367.7894056603333</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>367.7894056603333</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>634.1670622275113</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>634.1670622275113</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>634.1670622275113</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.1670622275113</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>404.0916128037956</v>
+        <v>198.4551434940583</v>
       </c>
       <c r="C3" t="n">
-        <v>317.7312518565088</v>
+        <v>24.00211421293133</v>
       </c>
       <c r="D3" t="n">
-        <v>317.7312518565088</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957468</v>
       </c>
       <c r="L3" t="n">
         <v>242.5255548298714</v>
@@ -4427,34 +4427,34 @@
         <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742824</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>819.7034117742824</v>
+        <v>782.2822794846131</v>
       </c>
       <c r="X3" t="n">
-        <v>611.8519115687495</v>
+        <v>574.4307792790803</v>
       </c>
       <c r="Y3" t="n">
-        <v>404.0916128037956</v>
+        <v>366.6704805141264</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>503.2874698569806</v>
+        <v>158.0472685670594</v>
       </c>
       <c r="C4" t="n">
-        <v>334.3512869290737</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>184.2346475167379</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1036.042782991337</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>769.6651264241586</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>769.6651264241586</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>503.2874698569806</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X4" t="n">
-        <v>503.2874698569806</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="Y4" t="n">
-        <v>503.2874698569806</v>
+        <v>339.6957333972991</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.477756798422</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>157.477756798422</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D5" t="n">
-        <v>157.477756798422</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>157.477756798422</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>423.8554133656</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>423.8554133656</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>423.8554133656</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>423.8554133656</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.4306440683848</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>290.9776147872577</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>280.8187272956868</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902313</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>904.2569522304914</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>887.8833378166544</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W6" t="n">
-        <v>633.6459810884528</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X6" t="n">
-        <v>633.6459810884528</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y6" t="n">
-        <v>633.6459810884528</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>560.4883125408293</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>560.4883125408293</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>560.4883125408293</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>412.5752189584362</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>265.6852714605258</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>97.11591081552922</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408293</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.4883125408293</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>916.1994525092121</v>
+        <v>1659.090843722215</v>
       </c>
       <c r="C8" t="n">
-        <v>877.903382004796</v>
+        <v>1290.128326781804</v>
       </c>
       <c r="D8" t="n">
-        <v>877.903382004796</v>
+        <v>931.8626281750533</v>
       </c>
       <c r="E8" t="n">
-        <v>877.903382004796</v>
+        <v>546.074375576809</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9174772151885</v>
+        <v>135.0884707872014</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685592</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685592</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685592</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607417</v>
+        <v>442.1757437607444</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904592</v>
+        <v>795.1862829045967</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995232</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209592</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940605</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550196</v>
+        <v>2359.356530550208</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661162</v>
+        <v>2540.564622661176</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342796</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762134</v>
+        <v>2435.830015762149</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858407</v>
+        <v>2435.830015762149</v>
       </c>
       <c r="U8" t="n">
-        <v>1973.496753383977</v>
+        <v>2435.830015762149</v>
       </c>
       <c r="V8" t="n">
-        <v>1642.433866040406</v>
+        <v>2435.830015762149</v>
       </c>
       <c r="W8" t="n">
-        <v>1289.665210770292</v>
+        <v>2435.830015762149</v>
       </c>
       <c r="X8" t="n">
-        <v>916.1994525092121</v>
+        <v>2435.830015762149</v>
       </c>
       <c r="Y8" t="n">
-        <v>916.1994525092121</v>
+        <v>2045.690683786337</v>
       </c>
     </row>
     <row r="9">
@@ -4877,49 +4877,49 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993887</v>
+        <v>71.66559839993894</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685592</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637186</v>
+        <v>113.4887579637195</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148177</v>
+        <v>298.0857543148196</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482988</v>
+        <v>592.6217377483022</v>
       </c>
       <c r="M9" t="n">
-        <v>1177.486317702005</v>
+        <v>1208.393778287035</v>
       </c>
       <c r="N9" t="n">
-        <v>1564.570720174574</v>
+        <v>1842.133061471877</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359412</v>
+        <v>2174.019871459267</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789036</v>
+        <v>2421.055229888892</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342781</v>
+        <v>2536.272628442638</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342781</v>
+        <v>2560.562760342796</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2426.620673347184</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685345</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751575</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519832</v>
+        <v>1769.36860661532</v>
       </c>
       <c r="W9" t="n">
         <v>1515.131249887118</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>321.6473060560078</v>
+        <v>689.2264432607499</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7111231281009</v>
+        <v>520.290260332843</v>
       </c>
       <c r="D10" t="n">
-        <v>152.7111231281009</v>
+        <v>370.1736209205072</v>
       </c>
       <c r="E10" t="n">
-        <v>152.7111231281009</v>
+        <v>222.2605273381141</v>
       </c>
       <c r="F10" t="n">
-        <v>152.7111231281009</v>
+        <v>75.37057984020376</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7111231281009</v>
+        <v>75.37057984020376</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685563</v>
+        <v>75.37057984020376</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685563</v>
+        <v>51.21125520685592</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380138</v>
+        <v>76.63468308380205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676565</v>
+        <v>248.2500215676578</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368916</v>
+        <v>523.3850043368936</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904029</v>
+        <v>823.8653899904059</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101616</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.58202793109</v>
+        <v>1382.582027931095</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616504</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412619</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634453</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="T10" t="n">
-        <v>1336.515802634453</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="U10" t="n">
-        <v>1047.397429129095</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="V10" t="n">
-        <v>792.7129409232081</v>
+        <v>1381.08465727148</v>
       </c>
       <c r="W10" t="n">
-        <v>503.2957708862475</v>
+        <v>1091.66748723452</v>
       </c>
       <c r="X10" t="n">
-        <v>503.2957708862475</v>
+        <v>1091.66748723452</v>
       </c>
       <c r="Y10" t="n">
-        <v>503.2957708862475</v>
+        <v>870.8749080909896</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>950.7540666811301</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876693</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2125.286319795764</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1870.601831589878</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.184661552917</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1353.1951106549</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>1132.40253151137</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>449.485266605716</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>301.5721730233229</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>301.5721730233229</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>134.3760737382028</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>134.3760737382028</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,19 +5542,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5652,34 +5652,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5743,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5758,22 +5758,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1359.396373079494</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6074,19 +6074,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1031.260321675049</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>862.3241387471426</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1433.701365648819</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1212.908786505289</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6214,55 +6214,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3050.708758511721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3499.490888553269</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3271.501337655251</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3050.708758511721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
@@ -6478,31 +6478,31 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3044.50749608713</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3964.355260995878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3674.938090958917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3446.9485400609</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3226.15596091737</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,31 +6715,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>923.4916164683283</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>754.5554335404214</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>604.4387941280856</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>456.5257005456925</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>835.5837926935558</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C37" t="n">
-        <v>835.5837926935558</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7125,22 +7125,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.024836667326</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>1017.232257523796</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7165,55 +7165,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4508.681396275535</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4289.079931298476</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4289.079931298476</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>4034.395443092589</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7402,61 +7402,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1650.832398530834</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1361.415228493873</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7690,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6442739835331</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1546.699459748751</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1257.28228971179</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1029.292738813773</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>1029.292738813773</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127221</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446522</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140413</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167801</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5.262887399594092</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8540,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>224.0384964438434</v>
+        <v>255.2581536004341</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538094</v>
       </c>
       <c r="O9" t="n">
-        <v>304.9014880782316</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348516</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>53.48834544997018</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>185.1299285698817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>41.11201973523688</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>66.73277020259214</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>45.99097492814198</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>110.2232578818461</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>66.51053793615034</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>92.15795203868058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>11.93987647707755</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>67.07129414993878</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>214.9597225531943</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>111.8681131589323</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>781128.4190274298</v>
+        <v>781128.4190274299</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>757589.5960834773</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>757589.5960834774</v>
+        <v>757589.5960834773</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>757589.5960834775</v>
+        <v>757589.5960834774</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>677359.4601380331</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
         <v>665895.944744255</v>
@@ -26331,31 +26331,31 @@
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580783</v>
+        <v>390680.0076580821</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060694</v>
+        <v>507909.2320606901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101751</v>
+        <v>95270.2377910184</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954692</v>
+        <v>132717.9756954682</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>141668.8507447212</v>
+        <v>141668.8507447201</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
+        <v>11776.97621680587</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11776.97621680585</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11776.97621680585</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11776.9762168059</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11776.9762168059</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11776.97621680592</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11776.97621680592</v>
+      </c>
+      <c r="P4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11776.97621680586</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567893</v>
+        <v>92902.86757567921</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-317898.3889206037</v>
+        <v>-317898.3889206036</v>
       </c>
       <c r="C6" t="n">
-        <v>362189.5916705895</v>
+        <v>362189.5916705896</v>
       </c>
       <c r="D6" t="n">
-        <v>52107.7341595551</v>
+        <v>52107.73415955208</v>
       </c>
       <c r="E6" t="n">
-        <v>45087.20664284832</v>
+        <v>44739.82738849509</v>
       </c>
       <c r="F6" t="n">
-        <v>552996.4387035421</v>
+        <v>552649.0594491852</v>
       </c>
       <c r="G6" t="n">
-        <v>552996.4387035422</v>
+        <v>552649.059449185</v>
       </c>
       <c r="H6" t="n">
-        <v>552996.4387035418</v>
+        <v>552649.0594491847</v>
       </c>
       <c r="I6" t="n">
-        <v>552996.4387035418</v>
+        <v>552649.0594491852</v>
       </c>
       <c r="J6" t="n">
-        <v>483997.2842844277</v>
+        <v>483649.9050300708</v>
       </c>
       <c r="K6" t="n">
-        <v>552996.4387035419</v>
+        <v>552649.059449185</v>
       </c>
       <c r="L6" t="n">
-        <v>457726.2009125242</v>
+        <v>457378.8216581664</v>
       </c>
       <c r="M6" t="n">
-        <v>420278.4630080726</v>
+        <v>419931.0837537167</v>
       </c>
       <c r="N6" t="n">
-        <v>552996.4387035419</v>
+        <v>552649.0594491848</v>
       </c>
       <c r="O6" t="n">
-        <v>552996.4387035421</v>
+        <v>552649.0594491848</v>
       </c>
       <c r="P6" t="n">
-        <v>552996.438703542</v>
+        <v>552649.0594491848</v>
       </c>
     </row>
   </sheetData>
@@ -26694,31 +26694,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.744165048452801e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.744165048452801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.744165048452801e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.744165048452801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.744165048452801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627823</v>
+        <v>933.7024595627854</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856953</v>
+        <v>640.1406900856989</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.744165048452801e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.647445793304</v>
+        <v>319.647445793307</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788916</v>
+        <v>434.2730407788881</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841928</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139492</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841925</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139492</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.744165048452801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841891</v>
+        <v>376.4268100841928</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139533</v>
+        <v>532.5675980139492</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>173.7218376989697</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27438,7 +27438,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>87.21174165050178</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>144.569111789956</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,10 +27517,10 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>31.6661645133583</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>204.5897362350244</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117124</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>139.8697520073925</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>68.11956169856012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>57.21613438642676</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>137.3877669479836</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,7 +27712,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>43.92180400150558</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27754,16 +27754,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>77.12354692460215</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>284.3083102460008</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>327.3597819716356</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>328.5107163637074</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>301.0334742203003</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465045</v>
+        <v>65.76608425464997</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.776449164518255</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.776449164532494</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>46.77245071700675</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>80.89851835608499</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640951</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28250,7 +28250,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.205184776592871e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.429578708524912e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,22 +29799,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>6.486328715517441e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.166235384126704e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>9.641133868265976e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30285,7 +30285,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885554</v>
+        <v>3.753577726885567</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546669</v>
+        <v>38.44132789546682</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972531</v>
+        <v>318.5802175972541</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763187</v>
+        <v>477.4691627763203</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354926</v>
+        <v>592.3427171354946</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359935</v>
+        <v>659.0954050359958</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525072</v>
+        <v>669.7602577525095</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307889</v>
+        <v>632.435619230791</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983017</v>
+        <v>539.7691690983035</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542127</v>
+        <v>405.344166754214</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864749</v>
+        <v>235.7856768864757</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140465</v>
+        <v>85.53465245140494</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944152</v>
+        <v>16.43128649944158</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508443</v>
+        <v>0.3002862181508453</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436928</v>
+        <v>2.008341139436935</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035139</v>
+        <v>19.39634732035145</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026266</v>
+        <v>69.14683309026289</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079424</v>
+        <v>189.7441951079431</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502166</v>
+        <v>324.3030514502177</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571278</v>
+        <v>436.0654741571292</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617163</v>
+        <v>508.867840461718</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152211</v>
+        <v>522.3360580152228</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519081</v>
+        <v>477.8354464519096</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947587</v>
+        <v>383.50507249476</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.36298474637</v>
+        <v>256.3629847463708</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204792</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366397</v>
+        <v>37.30405581366409</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133931</v>
+        <v>8.095024154133958</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419032</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752558</v>
+        <v>1.683725746752564</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840008</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415877</v>
+        <v>50.63422518415893</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772517</v>
+        <v>195.6183185772524</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490122</v>
+        <v>250.324098749013</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023123</v>
+        <v>263.9316641023132</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462348</v>
+        <v>257.6559590462357</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046253</v>
+        <v>237.9869810046261</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708729</v>
+        <v>203.6389757708736</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939806</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307409</v>
+        <v>75.70643221307435</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658775</v>
+        <v>29.34274778658785</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942746</v>
+        <v>7.19410091794277</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650327</v>
+        <v>0.09183958618650358</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>491.1355220041054</v>
+        <v>361.553117211966</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>305.542772458138</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>565.6398038246476</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>650.5350891770659</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,37 +32788,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,25 +33025,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,37 +33736,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>198.5607970756955</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,37 +34210,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250132</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966403</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34874,7 +34874,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204533</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
         <v>6.56026382749684</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35029,10 +35029,10 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>123.5028874333351</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705668</v>
+        <v>137.5343130705679</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313381</v>
+        <v>257.3793117313397</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655054</v>
+        <v>356.5763021655073</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087208</v>
+        <v>428.7491718087231</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559163</v>
+        <v>440.3471941559185</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091022</v>
+        <v>402.3374078091042</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430322</v>
+        <v>308.5361733430339</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797632</v>
+        <v>183.0384768797645</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234278</v>
+        <v>20.20013907234355</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127574</v>
+        <v>62.90656844127636</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758576</v>
+        <v>186.4616124758587</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772536</v>
+        <v>297.5110943772551</v>
       </c>
       <c r="M9" t="n">
-        <v>590.7723029835414</v>
+        <v>621.9919601401338</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318878</v>
+        <v>640.1406900856989</v>
       </c>
       <c r="O9" t="n">
-        <v>640.1406900856953</v>
+        <v>335.2392020074652</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804284</v>
+        <v>249.5306650804297</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603485</v>
+        <v>116.3812106603493</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783608</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873308</v>
+        <v>25.68023017873347</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513688</v>
+        <v>173.3488267513695</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093292</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641529</v>
+        <v>303.5155410641538</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254643</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918665</v>
+        <v>262.5721089186658</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357664</v>
+        <v>200.9175350357671</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228576</v>
+        <v>54.82702814228621</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>349.0014880820871</v>
+        <v>219.4190832899477</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.5609983721165</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>434.2980917413143</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>519.1933770937326</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>108.4053175402704</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>322.3705304098922</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125101</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>485.6519634391653</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039643</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
